--- a/components/tailored-import/back/tests/Common/simple_import.xlsx
+++ b/components/tailored-import/back/tests/Common/simple_import.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27720" windowHeight="12570"/>
+    <workbookView windowWidth="27720" windowHeight="14370" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Products" sheetId="1" r:id="rId1"/>
@@ -63,12 +63,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
+    <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="m/d/yyyy;@"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
     <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -82,6 +82,36 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -95,8 +125,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -104,7 +149,60 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -118,104 +216,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="Calibri"/>
@@ -232,6 +232,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -244,175 +250,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -435,15 +435,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -459,17 +450,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
       </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -500,26 +500,26 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -528,142 +528,142 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1013,7 +1013,7 @@
   <sheetPr/>
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
@@ -1119,8 +1119,8 @@
   <sheetPr/>
   <dimension ref="B2:G7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="6" outlineLevelCol="6"/>
@@ -1170,7 +1170,7 @@
         <v>14.4</v>
       </c>
     </row>
-    <row r="5" customFormat="1" spans="2:7">
+    <row r="5" customFormat="1" spans="2:6">
       <c r="B5" t="s">
         <v>8</v>
       </c>
@@ -1185,10 +1185,6 @@
       </c>
       <c r="F5" s="2">
         <v>44704</v>
-      </c>
-      <c r="G5">
-        <f>D5*1.2</f>
-        <v>16.644</v>
       </c>
     </row>
     <row r="6" customFormat="1" spans="2:7">

--- a/components/tailored-import/back/tests/Common/simple_import.xlsx
+++ b/components/tailored-import/back/tests/Common/simple_import.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10411"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/akeneo/dev/ee-master/components/tailored-import/back/tests/Common/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{162213CC-77FB-D344-8F8A-48EA3A25F6EC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="27720" windowHeight="14380" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="27720" windowHeight="14370" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Products" sheetId="1" r:id="rId1"/>
@@ -18,7 +12,7 @@
     <sheet name="Empty sheet" sheetId="3" r:id="rId3"/>
     <sheet name="Out of bound value" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -67,12 +61,16 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
-    <numFmt numFmtId="166" formatCode="m/d/yyyy;@"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="6">
+    <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="m/d/yyyy;@"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -80,16 +78,346 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -97,9 +425,251 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -107,10 +677,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
@@ -123,17 +693,61 @@
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="60% - Accent6" xfId="1" builtinId="52"/>
+    <cellStyle name="40% - Accent6" xfId="2" builtinId="51"/>
+    <cellStyle name="60% - Accent5" xfId="3" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="4" builtinId="49"/>
+    <cellStyle name="40% - Accent5" xfId="5" builtinId="47"/>
+    <cellStyle name="20% - Accent5" xfId="6" builtinId="46"/>
+    <cellStyle name="60% - Accent4" xfId="7" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="8" builtinId="45"/>
+    <cellStyle name="40% - Accent4" xfId="9" builtinId="43"/>
+    <cellStyle name="Accent4" xfId="10" builtinId="41"/>
+    <cellStyle name="Linked Cell" xfId="11" builtinId="24"/>
+    <cellStyle name="40% - Accent3" xfId="12" builtinId="39"/>
+    <cellStyle name="60% - Accent2" xfId="13" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="14" builtinId="37"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="20% - Accent2" xfId="16" builtinId="34"/>
+    <cellStyle name="Accent2" xfId="17" builtinId="33"/>
+    <cellStyle name="40% - Accent1" xfId="18" builtinId="31"/>
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30"/>
+    <cellStyle name="Accent1" xfId="20" builtinId="29"/>
+    <cellStyle name="Neutral" xfId="21" builtinId="28"/>
+    <cellStyle name="60% - Accent1" xfId="22" builtinId="32"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="20% - Accent4" xfId="24" builtinId="42"/>
+    <cellStyle name="Total" xfId="25" builtinId="25"/>
+    <cellStyle name="Output" xfId="26" builtinId="21"/>
+    <cellStyle name="Currency" xfId="27" builtinId="4"/>
+    <cellStyle name="20% - Accent3" xfId="28" builtinId="38"/>
+    <cellStyle name="Note" xfId="29" builtinId="10"/>
+    <cellStyle name="Input" xfId="30" builtinId="20"/>
+    <cellStyle name="Heading 4" xfId="31" builtinId="19"/>
+    <cellStyle name="Calculation" xfId="32" builtinId="22"/>
+    <cellStyle name="Good" xfId="33" builtinId="26"/>
+    <cellStyle name="Heading 3" xfId="34" builtinId="18"/>
+    <cellStyle name="CExplanatory Text" xfId="35" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="36" builtinId="16"/>
+    <cellStyle name="Comma [0]" xfId="37" builtinId="6"/>
+    <cellStyle name="20% - Accent6" xfId="38" builtinId="50"/>
+    <cellStyle name="Title" xfId="39" builtinId="15"/>
+    <cellStyle name="Currency [0]" xfId="40" builtinId="7"/>
+    <cellStyle name="Warning Text" xfId="41" builtinId="11"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9"/>
+    <cellStyle name="Heading 2" xfId="43" builtinId="17"/>
+    <cellStyle name="Comma" xfId="44" builtinId="3"/>
+    <cellStyle name="Check Cell" xfId="45" builtinId="23"/>
+    <cellStyle name="60% - Accent3" xfId="46" builtinId="40"/>
+    <cellStyle name="Percent" xfId="47" builtinId="5"/>
+    <cellStyle name="Hyperlink" xfId="48" builtinId="8"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -391,25 +1005,25 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="14.25" outlineLevelRow="5" outlineLevelCol="5"/>
   <cols>
-    <col min="5" max="5" width="12.6640625" customWidth="1"/>
+    <col min="5" max="5" width="12.625" customWidth="1"/>
     <col min="6" max="6" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -429,7 +1043,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -447,10 +1061,10 @@
       </c>
       <c r="F2">
         <f>C2*1.2</f>
-        <v>14.399999999999999</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+        <v>14.4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -467,7 +1081,7 @@
         <v>44704</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -488,32 +1102,34 @@
         <v>19.2</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="3:3">
       <c r="C5" s="4"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="3:3">
       <c r="C6" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="B2:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="6" outlineLevelCol="6"/>
   <cols>
-    <col min="6" max="6" width="9.33203125"/>
-    <col min="7" max="7" width="14.83203125" customWidth="1"/>
+    <col min="6" max="6" width="9.375"/>
+    <col min="7" max="7" width="14.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="2" customFormat="1" spans="2:7">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -533,7 +1149,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="4" customFormat="1" spans="2:7">
       <c r="B4" t="s">
         <v>6</v>
       </c>
@@ -551,10 +1167,10 @@
       </c>
       <c r="G4">
         <f>D4*1.2</f>
-        <v>14.399999999999999</v>
-      </c>
-    </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.2">
+        <v>14.4</v>
+      </c>
+    </row>
+    <row r="5" customFormat="1" spans="2:6">
       <c r="B5" t="s">
         <v>8</v>
       </c>
@@ -571,7 +1187,7 @@
         <v>44704</v>
       </c>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="6" customFormat="1" spans="2:7">
       <c r="B6" t="s">
         <v>10</v>
       </c>
@@ -592,42 +1208,46 @@
         <v>19.2</v>
       </c>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="6:6">
       <c r="F7" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="P8" sqref="P8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I29" sqref="I29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="3" outlineLevelCol="6"/>
   <cols>
-    <col min="6" max="6" width="12.33203125" customWidth="1"/>
+    <col min="6" max="6" width="12.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -647,7 +1267,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -665,10 +1285,10 @@
       </c>
       <c r="F2">
         <f>C2*1.2</f>
-        <v>14.399999999999999</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+        <v>14.4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -686,13 +1306,13 @@
       </c>
       <c r="F3">
         <f>C3*1.2</f>
-        <v>16.643999999999998</v>
+        <v>16.644</v>
       </c>
       <c r="G3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -715,5 +1335,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/components/tailored-import/back/tests/Common/simple_import.xlsx
+++ b/components/tailored-import/back/tests/Common/simple_import.xlsx
@@ -4,21 +4,24 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27720" windowHeight="12690" activeTab="4"/>
+    <workbookView windowWidth="27720" windowHeight="12690" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Products" sheetId="1" r:id="rId1"/>
     <sheet name="Empty lines and columns" sheetId="2" r:id="rId2"/>
     <sheet name="Empty sheet" sheetId="3" r:id="rId3"/>
     <sheet name="Out of bound value" sheetId="4" r:id="rId4"/>
-    <sheet name="Two lines" sheetId="5" r:id="rId5"/>
+    <sheet name="Empty header" sheetId="5" r:id="rId5"/>
+    <sheet name="Sheet1" sheetId="8" r:id="rId6"/>
+    <sheet name="Trailing empty header" sheetId="6" r:id="rId7"/>
+    <sheet name="More than 500 cols" sheetId="7" r:id="rId8"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="578" uniqueCount="521">
   <si>
     <t>Sku</t>
   </si>
@@ -57,6 +60,1530 @@
   </si>
   <si>
     <t>another value</t>
+  </si>
+  <si>
+    <t>Col1</t>
+  </si>
+  <si>
+    <t>Col2</t>
+  </si>
+  <si>
+    <t>Col3</t>
+  </si>
+  <si>
+    <t>Col4</t>
+  </si>
+  <si>
+    <t>Col5</t>
+  </si>
+  <si>
+    <t>Col6</t>
+  </si>
+  <si>
+    <t>Col7</t>
+  </si>
+  <si>
+    <t>Col8</t>
+  </si>
+  <si>
+    <t>Col9</t>
+  </si>
+  <si>
+    <t>Col10</t>
+  </si>
+  <si>
+    <t>Col11</t>
+  </si>
+  <si>
+    <t>Col12</t>
+  </si>
+  <si>
+    <t>Col13</t>
+  </si>
+  <si>
+    <t>Col14</t>
+  </si>
+  <si>
+    <t>Col15</t>
+  </si>
+  <si>
+    <t>Col16</t>
+  </si>
+  <si>
+    <t>Col17</t>
+  </si>
+  <si>
+    <t>Col18</t>
+  </si>
+  <si>
+    <t>Col19</t>
+  </si>
+  <si>
+    <t>Col20</t>
+  </si>
+  <si>
+    <t>Col21</t>
+  </si>
+  <si>
+    <t>Col22</t>
+  </si>
+  <si>
+    <t>Col23</t>
+  </si>
+  <si>
+    <t>Col24</t>
+  </si>
+  <si>
+    <t>Col25</t>
+  </si>
+  <si>
+    <t>Col26</t>
+  </si>
+  <si>
+    <t>Col27</t>
+  </si>
+  <si>
+    <t>Col28</t>
+  </si>
+  <si>
+    <t>Col29</t>
+  </si>
+  <si>
+    <t>Col30</t>
+  </si>
+  <si>
+    <t>Col31</t>
+  </si>
+  <si>
+    <t>Col32</t>
+  </si>
+  <si>
+    <t>Col33</t>
+  </si>
+  <si>
+    <t>Col34</t>
+  </si>
+  <si>
+    <t>Col35</t>
+  </si>
+  <si>
+    <t>Col36</t>
+  </si>
+  <si>
+    <t>Col37</t>
+  </si>
+  <si>
+    <t>Col38</t>
+  </si>
+  <si>
+    <t>Col39</t>
+  </si>
+  <si>
+    <t>Col40</t>
+  </si>
+  <si>
+    <t>Col41</t>
+  </si>
+  <si>
+    <t>Col42</t>
+  </si>
+  <si>
+    <t>Col43</t>
+  </si>
+  <si>
+    <t>Col44</t>
+  </si>
+  <si>
+    <t>Col45</t>
+  </si>
+  <si>
+    <t>Col46</t>
+  </si>
+  <si>
+    <t>Col47</t>
+  </si>
+  <si>
+    <t>Col48</t>
+  </si>
+  <si>
+    <t>Col49</t>
+  </si>
+  <si>
+    <t>Col50</t>
+  </si>
+  <si>
+    <t>Col51</t>
+  </si>
+  <si>
+    <t>Col52</t>
+  </si>
+  <si>
+    <t>Col53</t>
+  </si>
+  <si>
+    <t>Col54</t>
+  </si>
+  <si>
+    <t>Col55</t>
+  </si>
+  <si>
+    <t>Col56</t>
+  </si>
+  <si>
+    <t>Col57</t>
+  </si>
+  <si>
+    <t>Col58</t>
+  </si>
+  <si>
+    <t>Col59</t>
+  </si>
+  <si>
+    <t>Col60</t>
+  </si>
+  <si>
+    <t>Col61</t>
+  </si>
+  <si>
+    <t>Col62</t>
+  </si>
+  <si>
+    <t>Col63</t>
+  </si>
+  <si>
+    <t>Col64</t>
+  </si>
+  <si>
+    <t>Col65</t>
+  </si>
+  <si>
+    <t>Col66</t>
+  </si>
+  <si>
+    <t>Col67</t>
+  </si>
+  <si>
+    <t>Col68</t>
+  </si>
+  <si>
+    <t>Col69</t>
+  </si>
+  <si>
+    <t>Col70</t>
+  </si>
+  <si>
+    <t>Col71</t>
+  </si>
+  <si>
+    <t>Col72</t>
+  </si>
+  <si>
+    <t>Col73</t>
+  </si>
+  <si>
+    <t>Col74</t>
+  </si>
+  <si>
+    <t>Col75</t>
+  </si>
+  <si>
+    <t>Col76</t>
+  </si>
+  <si>
+    <t>Col77</t>
+  </si>
+  <si>
+    <t>Col78</t>
+  </si>
+  <si>
+    <t>Col79</t>
+  </si>
+  <si>
+    <t>Col80</t>
+  </si>
+  <si>
+    <t>Col81</t>
+  </si>
+  <si>
+    <t>Col82</t>
+  </si>
+  <si>
+    <t>Col83</t>
+  </si>
+  <si>
+    <t>Col84</t>
+  </si>
+  <si>
+    <t>Col85</t>
+  </si>
+  <si>
+    <t>Col86</t>
+  </si>
+  <si>
+    <t>Col87</t>
+  </si>
+  <si>
+    <t>Col88</t>
+  </si>
+  <si>
+    <t>Col89</t>
+  </si>
+  <si>
+    <t>Col90</t>
+  </si>
+  <si>
+    <t>Col91</t>
+  </si>
+  <si>
+    <t>Col92</t>
+  </si>
+  <si>
+    <t>Col93</t>
+  </si>
+  <si>
+    <t>Col94</t>
+  </si>
+  <si>
+    <t>Col95</t>
+  </si>
+  <si>
+    <t>Col96</t>
+  </si>
+  <si>
+    <t>Col97</t>
+  </si>
+  <si>
+    <t>Col98</t>
+  </si>
+  <si>
+    <t>Col99</t>
+  </si>
+  <si>
+    <t>Col100</t>
+  </si>
+  <si>
+    <t>Col101</t>
+  </si>
+  <si>
+    <t>Col102</t>
+  </si>
+  <si>
+    <t>Col103</t>
+  </si>
+  <si>
+    <t>Col104</t>
+  </si>
+  <si>
+    <t>Col105</t>
+  </si>
+  <si>
+    <t>Col106</t>
+  </si>
+  <si>
+    <t>Col107</t>
+  </si>
+  <si>
+    <t>Col108</t>
+  </si>
+  <si>
+    <t>Col109</t>
+  </si>
+  <si>
+    <t>Col110</t>
+  </si>
+  <si>
+    <t>Col111</t>
+  </si>
+  <si>
+    <t>Col112</t>
+  </si>
+  <si>
+    <t>Col113</t>
+  </si>
+  <si>
+    <t>Col114</t>
+  </si>
+  <si>
+    <t>Col115</t>
+  </si>
+  <si>
+    <t>Col116</t>
+  </si>
+  <si>
+    <t>Col117</t>
+  </si>
+  <si>
+    <t>Col118</t>
+  </si>
+  <si>
+    <t>Col119</t>
+  </si>
+  <si>
+    <t>Col120</t>
+  </si>
+  <si>
+    <t>Col121</t>
+  </si>
+  <si>
+    <t>Col122</t>
+  </si>
+  <si>
+    <t>Col123</t>
+  </si>
+  <si>
+    <t>Col124</t>
+  </si>
+  <si>
+    <t>Col125</t>
+  </si>
+  <si>
+    <t>Col126</t>
+  </si>
+  <si>
+    <t>Col127</t>
+  </si>
+  <si>
+    <t>Col128</t>
+  </si>
+  <si>
+    <t>Col129</t>
+  </si>
+  <si>
+    <t>Col130</t>
+  </si>
+  <si>
+    <t>Col131</t>
+  </si>
+  <si>
+    <t>Col132</t>
+  </si>
+  <si>
+    <t>Col133</t>
+  </si>
+  <si>
+    <t>Col134</t>
+  </si>
+  <si>
+    <t>Col135</t>
+  </si>
+  <si>
+    <t>Col136</t>
+  </si>
+  <si>
+    <t>Col137</t>
+  </si>
+  <si>
+    <t>Col138</t>
+  </si>
+  <si>
+    <t>Col139</t>
+  </si>
+  <si>
+    <t>Col140</t>
+  </si>
+  <si>
+    <t>Col141</t>
+  </si>
+  <si>
+    <t>Col142</t>
+  </si>
+  <si>
+    <t>Col143</t>
+  </si>
+  <si>
+    <t>Col144</t>
+  </si>
+  <si>
+    <t>Col145</t>
+  </si>
+  <si>
+    <t>Col146</t>
+  </si>
+  <si>
+    <t>Col147</t>
+  </si>
+  <si>
+    <t>Col148</t>
+  </si>
+  <si>
+    <t>Col149</t>
+  </si>
+  <si>
+    <t>Col150</t>
+  </si>
+  <si>
+    <t>Col151</t>
+  </si>
+  <si>
+    <t>Col152</t>
+  </si>
+  <si>
+    <t>Col153</t>
+  </si>
+  <si>
+    <t>Col154</t>
+  </si>
+  <si>
+    <t>Col155</t>
+  </si>
+  <si>
+    <t>Col156</t>
+  </si>
+  <si>
+    <t>Col157</t>
+  </si>
+  <si>
+    <t>Col158</t>
+  </si>
+  <si>
+    <t>Col159</t>
+  </si>
+  <si>
+    <t>Col160</t>
+  </si>
+  <si>
+    <t>Col161</t>
+  </si>
+  <si>
+    <t>Col162</t>
+  </si>
+  <si>
+    <t>Col163</t>
+  </si>
+  <si>
+    <t>Col164</t>
+  </si>
+  <si>
+    <t>Col165</t>
+  </si>
+  <si>
+    <t>Col166</t>
+  </si>
+  <si>
+    <t>Col167</t>
+  </si>
+  <si>
+    <t>Col168</t>
+  </si>
+  <si>
+    <t>Col169</t>
+  </si>
+  <si>
+    <t>Col170</t>
+  </si>
+  <si>
+    <t>Col171</t>
+  </si>
+  <si>
+    <t>Col172</t>
+  </si>
+  <si>
+    <t>Col173</t>
+  </si>
+  <si>
+    <t>Col174</t>
+  </si>
+  <si>
+    <t>Col175</t>
+  </si>
+  <si>
+    <t>Col176</t>
+  </si>
+  <si>
+    <t>Col177</t>
+  </si>
+  <si>
+    <t>Col178</t>
+  </si>
+  <si>
+    <t>Col179</t>
+  </si>
+  <si>
+    <t>Col180</t>
+  </si>
+  <si>
+    <t>Col181</t>
+  </si>
+  <si>
+    <t>Col182</t>
+  </si>
+  <si>
+    <t>Col183</t>
+  </si>
+  <si>
+    <t>Col184</t>
+  </si>
+  <si>
+    <t>Col185</t>
+  </si>
+  <si>
+    <t>Col186</t>
+  </si>
+  <si>
+    <t>Col187</t>
+  </si>
+  <si>
+    <t>Col188</t>
+  </si>
+  <si>
+    <t>Col189</t>
+  </si>
+  <si>
+    <t>Col190</t>
+  </si>
+  <si>
+    <t>Col191</t>
+  </si>
+  <si>
+    <t>Col192</t>
+  </si>
+  <si>
+    <t>Col193</t>
+  </si>
+  <si>
+    <t>Col194</t>
+  </si>
+  <si>
+    <t>Col195</t>
+  </si>
+  <si>
+    <t>Col196</t>
+  </si>
+  <si>
+    <t>Col197</t>
+  </si>
+  <si>
+    <t>Col198</t>
+  </si>
+  <si>
+    <t>Col199</t>
+  </si>
+  <si>
+    <t>Col200</t>
+  </si>
+  <si>
+    <t>Col201</t>
+  </si>
+  <si>
+    <t>Col202</t>
+  </si>
+  <si>
+    <t>Col203</t>
+  </si>
+  <si>
+    <t>Col204</t>
+  </si>
+  <si>
+    <t>Col205</t>
+  </si>
+  <si>
+    <t>Col206</t>
+  </si>
+  <si>
+    <t>Col207</t>
+  </si>
+  <si>
+    <t>Col208</t>
+  </si>
+  <si>
+    <t>Col209</t>
+  </si>
+  <si>
+    <t>Col210</t>
+  </si>
+  <si>
+    <t>Col211</t>
+  </si>
+  <si>
+    <t>Col212</t>
+  </si>
+  <si>
+    <t>Col213</t>
+  </si>
+  <si>
+    <t>Col214</t>
+  </si>
+  <si>
+    <t>Col215</t>
+  </si>
+  <si>
+    <t>Col216</t>
+  </si>
+  <si>
+    <t>Col217</t>
+  </si>
+  <si>
+    <t>Col218</t>
+  </si>
+  <si>
+    <t>Col219</t>
+  </si>
+  <si>
+    <t>Col220</t>
+  </si>
+  <si>
+    <t>Col221</t>
+  </si>
+  <si>
+    <t>Col222</t>
+  </si>
+  <si>
+    <t>Col223</t>
+  </si>
+  <si>
+    <t>Col224</t>
+  </si>
+  <si>
+    <t>Col225</t>
+  </si>
+  <si>
+    <t>Col226</t>
+  </si>
+  <si>
+    <t>Col227</t>
+  </si>
+  <si>
+    <t>Col228</t>
+  </si>
+  <si>
+    <t>Col229</t>
+  </si>
+  <si>
+    <t>Col230</t>
+  </si>
+  <si>
+    <t>Col231</t>
+  </si>
+  <si>
+    <t>Col232</t>
+  </si>
+  <si>
+    <t>Col233</t>
+  </si>
+  <si>
+    <t>Col234</t>
+  </si>
+  <si>
+    <t>Col235</t>
+  </si>
+  <si>
+    <t>Col236</t>
+  </si>
+  <si>
+    <t>Col237</t>
+  </si>
+  <si>
+    <t>Col238</t>
+  </si>
+  <si>
+    <t>Col239</t>
+  </si>
+  <si>
+    <t>Col240</t>
+  </si>
+  <si>
+    <t>Col241</t>
+  </si>
+  <si>
+    <t>Col242</t>
+  </si>
+  <si>
+    <t>Col243</t>
+  </si>
+  <si>
+    <t>Col244</t>
+  </si>
+  <si>
+    <t>Col245</t>
+  </si>
+  <si>
+    <t>Col246</t>
+  </si>
+  <si>
+    <t>Col247</t>
+  </si>
+  <si>
+    <t>Col248</t>
+  </si>
+  <si>
+    <t>Col249</t>
+  </si>
+  <si>
+    <t>Col250</t>
+  </si>
+  <si>
+    <t>Col251</t>
+  </si>
+  <si>
+    <t>Col252</t>
+  </si>
+  <si>
+    <t>Col253</t>
+  </si>
+  <si>
+    <t>Col254</t>
+  </si>
+  <si>
+    <t>Col255</t>
+  </si>
+  <si>
+    <t>Col256</t>
+  </si>
+  <si>
+    <t>Col257</t>
+  </si>
+  <si>
+    <t>Col258</t>
+  </si>
+  <si>
+    <t>Col259</t>
+  </si>
+  <si>
+    <t>Col260</t>
+  </si>
+  <si>
+    <t>Col261</t>
+  </si>
+  <si>
+    <t>Col262</t>
+  </si>
+  <si>
+    <t>Col263</t>
+  </si>
+  <si>
+    <t>Col264</t>
+  </si>
+  <si>
+    <t>Col265</t>
+  </si>
+  <si>
+    <t>Col266</t>
+  </si>
+  <si>
+    <t>Col267</t>
+  </si>
+  <si>
+    <t>Col268</t>
+  </si>
+  <si>
+    <t>Col269</t>
+  </si>
+  <si>
+    <t>Col270</t>
+  </si>
+  <si>
+    <t>Col271</t>
+  </si>
+  <si>
+    <t>Col272</t>
+  </si>
+  <si>
+    <t>Col273</t>
+  </si>
+  <si>
+    <t>Col274</t>
+  </si>
+  <si>
+    <t>Col275</t>
+  </si>
+  <si>
+    <t>Col276</t>
+  </si>
+  <si>
+    <t>Col277</t>
+  </si>
+  <si>
+    <t>Col278</t>
+  </si>
+  <si>
+    <t>Col279</t>
+  </si>
+  <si>
+    <t>Col280</t>
+  </si>
+  <si>
+    <t>Col281</t>
+  </si>
+  <si>
+    <t>Col282</t>
+  </si>
+  <si>
+    <t>Col283</t>
+  </si>
+  <si>
+    <t>Col284</t>
+  </si>
+  <si>
+    <t>Col285</t>
+  </si>
+  <si>
+    <t>Col286</t>
+  </si>
+  <si>
+    <t>Col287</t>
+  </si>
+  <si>
+    <t>Col288</t>
+  </si>
+  <si>
+    <t>Col289</t>
+  </si>
+  <si>
+    <t>Col290</t>
+  </si>
+  <si>
+    <t>Col291</t>
+  </si>
+  <si>
+    <t>Col292</t>
+  </si>
+  <si>
+    <t>Col293</t>
+  </si>
+  <si>
+    <t>Col294</t>
+  </si>
+  <si>
+    <t>Col295</t>
+  </si>
+  <si>
+    <t>Col296</t>
+  </si>
+  <si>
+    <t>Col297</t>
+  </si>
+  <si>
+    <t>Col298</t>
+  </si>
+  <si>
+    <t>Col299</t>
+  </si>
+  <si>
+    <t>Col300</t>
+  </si>
+  <si>
+    <t>Col301</t>
+  </si>
+  <si>
+    <t>Col302</t>
+  </si>
+  <si>
+    <t>Col303</t>
+  </si>
+  <si>
+    <t>Col304</t>
+  </si>
+  <si>
+    <t>Col305</t>
+  </si>
+  <si>
+    <t>Col306</t>
+  </si>
+  <si>
+    <t>Col307</t>
+  </si>
+  <si>
+    <t>Col308</t>
+  </si>
+  <si>
+    <t>Col309</t>
+  </si>
+  <si>
+    <t>Col310</t>
+  </si>
+  <si>
+    <t>Col311</t>
+  </si>
+  <si>
+    <t>Col312</t>
+  </si>
+  <si>
+    <t>Col313</t>
+  </si>
+  <si>
+    <t>Col314</t>
+  </si>
+  <si>
+    <t>Col315</t>
+  </si>
+  <si>
+    <t>Col316</t>
+  </si>
+  <si>
+    <t>Col317</t>
+  </si>
+  <si>
+    <t>Col318</t>
+  </si>
+  <si>
+    <t>Col319</t>
+  </si>
+  <si>
+    <t>Col320</t>
+  </si>
+  <si>
+    <t>Col321</t>
+  </si>
+  <si>
+    <t>Col322</t>
+  </si>
+  <si>
+    <t>Col323</t>
+  </si>
+  <si>
+    <t>Col324</t>
+  </si>
+  <si>
+    <t>Col325</t>
+  </si>
+  <si>
+    <t>Col326</t>
+  </si>
+  <si>
+    <t>Col327</t>
+  </si>
+  <si>
+    <t>Col328</t>
+  </si>
+  <si>
+    <t>Col329</t>
+  </si>
+  <si>
+    <t>Col330</t>
+  </si>
+  <si>
+    <t>Col331</t>
+  </si>
+  <si>
+    <t>Col332</t>
+  </si>
+  <si>
+    <t>Col333</t>
+  </si>
+  <si>
+    <t>Col334</t>
+  </si>
+  <si>
+    <t>Col335</t>
+  </si>
+  <si>
+    <t>Col336</t>
+  </si>
+  <si>
+    <t>Col337</t>
+  </si>
+  <si>
+    <t>Col338</t>
+  </si>
+  <si>
+    <t>Col339</t>
+  </si>
+  <si>
+    <t>Col340</t>
+  </si>
+  <si>
+    <t>Col341</t>
+  </si>
+  <si>
+    <t>Col342</t>
+  </si>
+  <si>
+    <t>Col343</t>
+  </si>
+  <si>
+    <t>Col344</t>
+  </si>
+  <si>
+    <t>Col345</t>
+  </si>
+  <si>
+    <t>Col346</t>
+  </si>
+  <si>
+    <t>Col347</t>
+  </si>
+  <si>
+    <t>Col348</t>
+  </si>
+  <si>
+    <t>Col349</t>
+  </si>
+  <si>
+    <t>Col350</t>
+  </si>
+  <si>
+    <t>Col351</t>
+  </si>
+  <si>
+    <t>Col352</t>
+  </si>
+  <si>
+    <t>Col353</t>
+  </si>
+  <si>
+    <t>Col354</t>
+  </si>
+  <si>
+    <t>Col355</t>
+  </si>
+  <si>
+    <t>Col356</t>
+  </si>
+  <si>
+    <t>Col357</t>
+  </si>
+  <si>
+    <t>Col358</t>
+  </si>
+  <si>
+    <t>Col359</t>
+  </si>
+  <si>
+    <t>Col360</t>
+  </si>
+  <si>
+    <t>Col361</t>
+  </si>
+  <si>
+    <t>Col362</t>
+  </si>
+  <si>
+    <t>Col363</t>
+  </si>
+  <si>
+    <t>Col364</t>
+  </si>
+  <si>
+    <t>Col365</t>
+  </si>
+  <si>
+    <t>Col366</t>
+  </si>
+  <si>
+    <t>Col367</t>
+  </si>
+  <si>
+    <t>Col368</t>
+  </si>
+  <si>
+    <t>Col369</t>
+  </si>
+  <si>
+    <t>Col370</t>
+  </si>
+  <si>
+    <t>Col371</t>
+  </si>
+  <si>
+    <t>Col372</t>
+  </si>
+  <si>
+    <t>Col373</t>
+  </si>
+  <si>
+    <t>Col374</t>
+  </si>
+  <si>
+    <t>Col375</t>
+  </si>
+  <si>
+    <t>Col376</t>
+  </si>
+  <si>
+    <t>Col377</t>
+  </si>
+  <si>
+    <t>Col378</t>
+  </si>
+  <si>
+    <t>Col379</t>
+  </si>
+  <si>
+    <t>Col380</t>
+  </si>
+  <si>
+    <t>Col381</t>
+  </si>
+  <si>
+    <t>Col382</t>
+  </si>
+  <si>
+    <t>Col383</t>
+  </si>
+  <si>
+    <t>Col384</t>
+  </si>
+  <si>
+    <t>Col385</t>
+  </si>
+  <si>
+    <t>Col386</t>
+  </si>
+  <si>
+    <t>Col387</t>
+  </si>
+  <si>
+    <t>Col388</t>
+  </si>
+  <si>
+    <t>Col389</t>
+  </si>
+  <si>
+    <t>Col390</t>
+  </si>
+  <si>
+    <t>Col391</t>
+  </si>
+  <si>
+    <t>Col392</t>
+  </si>
+  <si>
+    <t>Col393</t>
+  </si>
+  <si>
+    <t>Col394</t>
+  </si>
+  <si>
+    <t>Col395</t>
+  </si>
+  <si>
+    <t>Col396</t>
+  </si>
+  <si>
+    <t>Col397</t>
+  </si>
+  <si>
+    <t>Col398</t>
+  </si>
+  <si>
+    <t>Col399</t>
+  </si>
+  <si>
+    <t>Col400</t>
+  </si>
+  <si>
+    <t>Col401</t>
+  </si>
+  <si>
+    <t>Col402</t>
+  </si>
+  <si>
+    <t>Col403</t>
+  </si>
+  <si>
+    <t>Col404</t>
+  </si>
+  <si>
+    <t>Col405</t>
+  </si>
+  <si>
+    <t>Col406</t>
+  </si>
+  <si>
+    <t>Col407</t>
+  </si>
+  <si>
+    <t>Col408</t>
+  </si>
+  <si>
+    <t>Col409</t>
+  </si>
+  <si>
+    <t>Col410</t>
+  </si>
+  <si>
+    <t>Col411</t>
+  </si>
+  <si>
+    <t>Col412</t>
+  </si>
+  <si>
+    <t>Col413</t>
+  </si>
+  <si>
+    <t>Col414</t>
+  </si>
+  <si>
+    <t>Col415</t>
+  </si>
+  <si>
+    <t>Col416</t>
+  </si>
+  <si>
+    <t>Col417</t>
+  </si>
+  <si>
+    <t>Col418</t>
+  </si>
+  <si>
+    <t>Col419</t>
+  </si>
+  <si>
+    <t>Col420</t>
+  </si>
+  <si>
+    <t>Col421</t>
+  </si>
+  <si>
+    <t>Col422</t>
+  </si>
+  <si>
+    <t>Col423</t>
+  </si>
+  <si>
+    <t>Col424</t>
+  </si>
+  <si>
+    <t>Col425</t>
+  </si>
+  <si>
+    <t>Col426</t>
+  </si>
+  <si>
+    <t>Col427</t>
+  </si>
+  <si>
+    <t>Col428</t>
+  </si>
+  <si>
+    <t>Col429</t>
+  </si>
+  <si>
+    <t>Col430</t>
+  </si>
+  <si>
+    <t>Col431</t>
+  </si>
+  <si>
+    <t>Col432</t>
+  </si>
+  <si>
+    <t>Col433</t>
+  </si>
+  <si>
+    <t>Col434</t>
+  </si>
+  <si>
+    <t>Col435</t>
+  </si>
+  <si>
+    <t>Col436</t>
+  </si>
+  <si>
+    <t>Col437</t>
+  </si>
+  <si>
+    <t>Col438</t>
+  </si>
+  <si>
+    <t>Col439</t>
+  </si>
+  <si>
+    <t>Col440</t>
+  </si>
+  <si>
+    <t>Col441</t>
+  </si>
+  <si>
+    <t>Col442</t>
+  </si>
+  <si>
+    <t>Col443</t>
+  </si>
+  <si>
+    <t>Col444</t>
+  </si>
+  <si>
+    <t>Col445</t>
+  </si>
+  <si>
+    <t>Col446</t>
+  </si>
+  <si>
+    <t>Col447</t>
+  </si>
+  <si>
+    <t>Col448</t>
+  </si>
+  <si>
+    <t>Col449</t>
+  </si>
+  <si>
+    <t>Col450</t>
+  </si>
+  <si>
+    <t>Col451</t>
+  </si>
+  <si>
+    <t>Col452</t>
+  </si>
+  <si>
+    <t>Col453</t>
+  </si>
+  <si>
+    <t>Col454</t>
+  </si>
+  <si>
+    <t>Col455</t>
+  </si>
+  <si>
+    <t>Col456</t>
+  </si>
+  <si>
+    <t>Col457</t>
+  </si>
+  <si>
+    <t>Col458</t>
+  </si>
+  <si>
+    <t>Col459</t>
+  </si>
+  <si>
+    <t>Col460</t>
+  </si>
+  <si>
+    <t>Col461</t>
+  </si>
+  <si>
+    <t>Col462</t>
+  </si>
+  <si>
+    <t>Col463</t>
+  </si>
+  <si>
+    <t>Col464</t>
+  </si>
+  <si>
+    <t>Col465</t>
+  </si>
+  <si>
+    <t>Col466</t>
+  </si>
+  <si>
+    <t>Col467</t>
+  </si>
+  <si>
+    <t>Col468</t>
+  </si>
+  <si>
+    <t>Col469</t>
+  </si>
+  <si>
+    <t>Col470</t>
+  </si>
+  <si>
+    <t>Col471</t>
+  </si>
+  <si>
+    <t>Col472</t>
+  </si>
+  <si>
+    <t>Col473</t>
+  </si>
+  <si>
+    <t>Col474</t>
+  </si>
+  <si>
+    <t>Col475</t>
+  </si>
+  <si>
+    <t>Col476</t>
+  </si>
+  <si>
+    <t>Col477</t>
+  </si>
+  <si>
+    <t>Col478</t>
+  </si>
+  <si>
+    <t>Col479</t>
+  </si>
+  <si>
+    <t>Col480</t>
+  </si>
+  <si>
+    <t>Col481</t>
+  </si>
+  <si>
+    <t>Col482</t>
+  </si>
+  <si>
+    <t>Col483</t>
+  </si>
+  <si>
+    <t>Col484</t>
+  </si>
+  <si>
+    <t>Col485</t>
+  </si>
+  <si>
+    <t>Col486</t>
+  </si>
+  <si>
+    <t>Col487</t>
+  </si>
+  <si>
+    <t>Col488</t>
+  </si>
+  <si>
+    <t>Col489</t>
+  </si>
+  <si>
+    <t>Col490</t>
+  </si>
+  <si>
+    <t>Col491</t>
+  </si>
+  <si>
+    <t>Col492</t>
+  </si>
+  <si>
+    <t>Col493</t>
+  </si>
+  <si>
+    <t>Col494</t>
+  </si>
+  <si>
+    <t>Col495</t>
+  </si>
+  <si>
+    <t>Col496</t>
+  </si>
+  <si>
+    <t>Col497</t>
+  </si>
+  <si>
+    <t>Col498</t>
+  </si>
+  <si>
+    <t>Col499</t>
+  </si>
+  <si>
+    <t>Col500</t>
+  </si>
+  <si>
+    <t>Col501</t>
+  </si>
+  <si>
+    <t>Col502</t>
+  </si>
+  <si>
+    <t>Col503</t>
+  </si>
+  <si>
+    <t>Col504</t>
+  </si>
+  <si>
+    <t>Col505</t>
+  </si>
+  <si>
+    <t>Col506</t>
+  </si>
+  <si>
+    <t>Col507</t>
+  </si>
+  <si>
+    <t>Col508</t>
   </si>
 </sst>
 </file>
@@ -64,13 +1591,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="7">
-    <numFmt numFmtId="176" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
-    <numFmt numFmtId="177" formatCode="m/d/yyyy;@"/>
-    <numFmt numFmtId="178" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="179" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="180" formatCode="mmm\-yy"/>
+    <numFmt numFmtId="176" formatCode="m/d/yyyy;@"/>
+    <numFmt numFmtId="177" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
+    <numFmt numFmtId="178" formatCode="mmm\-yy"/>
+    <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="180" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="181" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="182" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="182" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -82,32 +1609,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -142,11 +1646,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -157,51 +1660,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -219,13 +1678,81 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -234,19 +1761,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -264,7 +1779,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -276,7 +1803,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -288,133 +1935,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -425,21 +1958,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -455,8 +1973,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -472,17 +1990,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -517,11 +2024,37 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -530,168 +2063,171 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1016,7 +2552,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="A1:F4"/>
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="14.25" outlineLevelRow="5" outlineLevelCol="5"/>
@@ -1052,13 +2588,13 @@
       <c r="B2" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2" s="2">
         <v>12</v>
       </c>
       <c r="D2" t="b">
         <v>1</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E2" s="3">
         <v>44642</v>
       </c>
       <c r="F2">
@@ -1073,13 +2609,13 @@
       <c r="B3" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3" s="2">
         <v>13.87</v>
       </c>
       <c r="D3" t="b">
         <v>0</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E3" s="3">
         <v>44704</v>
       </c>
     </row>
@@ -1090,13 +2626,13 @@
       <c r="B4" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4" s="2">
         <v>16</v>
       </c>
       <c r="D4" t="b">
         <v>1</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4" s="3">
         <v>42282</v>
       </c>
       <c r="F4">
@@ -1158,13 +2694,13 @@
       <c r="C4" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4" s="2">
         <v>12</v>
       </c>
       <c r="E4" t="b">
         <v>1</v>
       </c>
-      <c r="F4" s="2">
+      <c r="F4" s="3">
         <v>44642</v>
       </c>
       <c r="G4">
@@ -1179,13 +2715,13 @@
       <c r="C5" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5" s="2">
         <v>13.87</v>
       </c>
       <c r="E5" t="b">
         <v>0</v>
       </c>
-      <c r="F5" s="2">
+      <c r="F5" s="3">
         <v>44704</v>
       </c>
     </row>
@@ -1196,13 +2732,13 @@
       <c r="C6" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6" s="2">
         <v>16</v>
       </c>
       <c r="E6" t="b">
         <v>1</v>
       </c>
-      <c r="F6" s="2">
+      <c r="F6" s="3">
         <v>42282</v>
       </c>
       <c r="G6">
@@ -1211,7 +2747,7 @@
       </c>
     </row>
     <row r="7" spans="6:6">
-      <c r="F7" s="3"/>
+      <c r="F7" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1276,13 +2812,13 @@
       <c r="B2" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2" s="2">
         <v>12</v>
       </c>
       <c r="D2" t="b">
         <v>1</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E2" s="3">
         <v>44642</v>
       </c>
       <c r="F2">
@@ -1297,13 +2833,13 @@
       <c r="B3" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3" s="2">
         <v>13.87</v>
       </c>
       <c r="D3" t="b">
         <v>0</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E3" s="3">
         <v>44704</v>
       </c>
       <c r="F3">
@@ -1321,13 +2857,13 @@
       <c r="B4" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4" s="2">
         <v>16</v>
       </c>
       <c r="D4" t="b">
         <v>1</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4" s="3">
         <v>42282</v>
       </c>
       <c r="F4">
@@ -1346,11 +2882,11 @@
   <sheetPr/>
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="3" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="14.25" outlineLevelRow="3" outlineLevelCol="5"/>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
@@ -1362,9 +2898,6 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
       <c r="E1" t="s">
         <v>4</v>
       </c>
@@ -1379,13 +2912,10 @@
       <c r="B2" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2" s="2">
         <v>12</v>
       </c>
-      <c r="D2" t="b">
-        <v>1</v>
-      </c>
-      <c r="E2" s="2">
+      <c r="E2" s="3">
         <v>44642</v>
       </c>
       <c r="F2">
@@ -1400,20 +2930,1763 @@
       <c r="B3" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3" s="2">
+        <v>13.87</v>
+      </c>
+      <c r="E3" s="3">
+        <v>44704</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="2">
+        <v>16</v>
+      </c>
+      <c r="E4" s="3">
+        <v>42282</v>
+      </c>
+      <c r="F4">
+        <f>C4*1.2</f>
+        <v>19.2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="14.25" outlineLevelRow="5" outlineLevelCol="5"/>
+  <cols>
+    <col min="5" max="5" width="12.625" customWidth="1"/>
+    <col min="6" max="6" width="12" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="2">
+        <v>12</v>
+      </c>
+      <c r="D2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E2" s="3">
+        <v>44642</v>
+      </c>
+      <c r="F2">
+        <f>C2*1.2</f>
+        <v>14.4</v>
+      </c>
+    </row>
+    <row r="3" customFormat="1" spans="1:5">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="2">
         <v>13.87</v>
       </c>
       <c r="D3" t="b">
         <v>0</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E3" s="3">
         <v>44704</v>
       </c>
     </row>
     <row r="4" spans="3:5">
-      <c r="C4" s="1"/>
+      <c r="C4" s="2"/>
       <c r="D4"/>
-      <c r="E4" s="2"/>
+      <c r="E4" s="3"/>
+    </row>
+    <row r="5" customFormat="1" spans="3:3">
+      <c r="C5" s="4"/>
+    </row>
+    <row r="6" customFormat="1" spans="3:3">
+      <c r="C6" s="5"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:G4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="14.25" outlineLevelRow="3" outlineLevelCol="6"/>
+  <cols>
+    <col min="7" max="7" width="10.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1"/>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="2">
+        <v>12</v>
+      </c>
+      <c r="D2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E2" s="3">
+        <v>44642</v>
+      </c>
+      <c r="F2">
+        <f>C2*1.2</f>
+        <v>14.4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="2">
+        <v>13.87</v>
+      </c>
+      <c r="D3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E3" s="3">
+        <v>44704</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="2">
+        <v>16</v>
+      </c>
+      <c r="D4" t="b">
+        <v>1</v>
+      </c>
+      <c r="E4" s="3">
+        <v>42282</v>
+      </c>
+      <c r="F4">
+        <f>C4*1.2</f>
+        <v>19.2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:SN1"/>
+  <sheetViews>
+    <sheetView topLeftCell="PZ1" workbookViewId="0">
+      <selection activeCell="SM3" sqref="SM3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="14.25"/>
+  <sheetData>
+    <row r="1" spans="1:508">
+      <c r="A1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M1" t="s">
+        <v>25</v>
+      </c>
+      <c r="N1" t="s">
+        <v>26</v>
+      </c>
+      <c r="O1" t="s">
+        <v>27</v>
+      </c>
+      <c r="P1" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>29</v>
+      </c>
+      <c r="R1" t="s">
+        <v>30</v>
+      </c>
+      <c r="S1" t="s">
+        <v>31</v>
+      </c>
+      <c r="T1" t="s">
+        <v>32</v>
+      </c>
+      <c r="U1" t="s">
+        <v>33</v>
+      </c>
+      <c r="V1" t="s">
+        <v>34</v>
+      </c>
+      <c r="W1" t="s">
+        <v>35</v>
+      </c>
+      <c r="X1" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>62</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>63</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BL1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BM1" t="s">
+        <v>77</v>
+      </c>
+      <c r="BN1" t="s">
+        <v>78</v>
+      </c>
+      <c r="BO1" t="s">
+        <v>79</v>
+      </c>
+      <c r="BP1" t="s">
+        <v>80</v>
+      </c>
+      <c r="BQ1" t="s">
+        <v>81</v>
+      </c>
+      <c r="BR1" t="s">
+        <v>82</v>
+      </c>
+      <c r="BS1" t="s">
+        <v>83</v>
+      </c>
+      <c r="BT1" t="s">
+        <v>84</v>
+      </c>
+      <c r="BU1" t="s">
+        <v>85</v>
+      </c>
+      <c r="BV1" t="s">
+        <v>86</v>
+      </c>
+      <c r="BW1" t="s">
+        <v>87</v>
+      </c>
+      <c r="BX1" t="s">
+        <v>88</v>
+      </c>
+      <c r="BY1" t="s">
+        <v>89</v>
+      </c>
+      <c r="BZ1" t="s">
+        <v>90</v>
+      </c>
+      <c r="CA1" t="s">
+        <v>91</v>
+      </c>
+      <c r="CB1" t="s">
+        <v>92</v>
+      </c>
+      <c r="CC1" t="s">
+        <v>93</v>
+      </c>
+      <c r="CD1" t="s">
+        <v>94</v>
+      </c>
+      <c r="CE1" t="s">
+        <v>95</v>
+      </c>
+      <c r="CF1" t="s">
+        <v>96</v>
+      </c>
+      <c r="CG1" t="s">
+        <v>97</v>
+      </c>
+      <c r="CH1" t="s">
+        <v>98</v>
+      </c>
+      <c r="CI1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CJ1" t="s">
+        <v>100</v>
+      </c>
+      <c r="CK1" t="s">
+        <v>101</v>
+      </c>
+      <c r="CL1" t="s">
+        <v>102</v>
+      </c>
+      <c r="CM1" t="s">
+        <v>103</v>
+      </c>
+      <c r="CN1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CO1" t="s">
+        <v>105</v>
+      </c>
+      <c r="CP1" t="s">
+        <v>106</v>
+      </c>
+      <c r="CQ1" t="s">
+        <v>107</v>
+      </c>
+      <c r="CR1" t="s">
+        <v>108</v>
+      </c>
+      <c r="CS1" t="s">
+        <v>109</v>
+      </c>
+      <c r="CT1" t="s">
+        <v>110</v>
+      </c>
+      <c r="CU1" t="s">
+        <v>111</v>
+      </c>
+      <c r="CV1" t="s">
+        <v>112</v>
+      </c>
+      <c r="CW1" t="s">
+        <v>113</v>
+      </c>
+      <c r="CX1" t="s">
+        <v>114</v>
+      </c>
+      <c r="CY1" t="s">
+        <v>115</v>
+      </c>
+      <c r="CZ1" t="s">
+        <v>116</v>
+      </c>
+      <c r="DA1" t="s">
+        <v>117</v>
+      </c>
+      <c r="DB1" t="s">
+        <v>118</v>
+      </c>
+      <c r="DC1" t="s">
+        <v>119</v>
+      </c>
+      <c r="DD1" t="s">
+        <v>120</v>
+      </c>
+      <c r="DE1" t="s">
+        <v>121</v>
+      </c>
+      <c r="DF1" t="s">
+        <v>122</v>
+      </c>
+      <c r="DG1" t="s">
+        <v>123</v>
+      </c>
+      <c r="DH1" t="s">
+        <v>124</v>
+      </c>
+      <c r="DI1" t="s">
+        <v>125</v>
+      </c>
+      <c r="DJ1" t="s">
+        <v>126</v>
+      </c>
+      <c r="DK1" t="s">
+        <v>127</v>
+      </c>
+      <c r="DL1" t="s">
+        <v>128</v>
+      </c>
+      <c r="DM1" t="s">
+        <v>129</v>
+      </c>
+      <c r="DN1" t="s">
+        <v>130</v>
+      </c>
+      <c r="DO1" t="s">
+        <v>131</v>
+      </c>
+      <c r="DP1" t="s">
+        <v>132</v>
+      </c>
+      <c r="DQ1" t="s">
+        <v>133</v>
+      </c>
+      <c r="DR1" t="s">
+        <v>134</v>
+      </c>
+      <c r="DS1" t="s">
+        <v>135</v>
+      </c>
+      <c r="DT1" t="s">
+        <v>136</v>
+      </c>
+      <c r="DU1" t="s">
+        <v>137</v>
+      </c>
+      <c r="DV1" t="s">
+        <v>138</v>
+      </c>
+      <c r="DW1" t="s">
+        <v>139</v>
+      </c>
+      <c r="DX1" t="s">
+        <v>140</v>
+      </c>
+      <c r="DY1" t="s">
+        <v>141</v>
+      </c>
+      <c r="DZ1" t="s">
+        <v>142</v>
+      </c>
+      <c r="EA1" t="s">
+        <v>143</v>
+      </c>
+      <c r="EB1" t="s">
+        <v>144</v>
+      </c>
+      <c r="EC1" t="s">
+        <v>145</v>
+      </c>
+      <c r="ED1" t="s">
+        <v>146</v>
+      </c>
+      <c r="EE1" t="s">
+        <v>147</v>
+      </c>
+      <c r="EF1" t="s">
+        <v>148</v>
+      </c>
+      <c r="EG1" t="s">
+        <v>149</v>
+      </c>
+      <c r="EH1" t="s">
+        <v>150</v>
+      </c>
+      <c r="EI1" t="s">
+        <v>151</v>
+      </c>
+      <c r="EJ1" t="s">
+        <v>152</v>
+      </c>
+      <c r="EK1" t="s">
+        <v>153</v>
+      </c>
+      <c r="EL1" t="s">
+        <v>154</v>
+      </c>
+      <c r="EM1" t="s">
+        <v>155</v>
+      </c>
+      <c r="EN1" t="s">
+        <v>156</v>
+      </c>
+      <c r="EO1" t="s">
+        <v>157</v>
+      </c>
+      <c r="EP1" t="s">
+        <v>158</v>
+      </c>
+      <c r="EQ1" t="s">
+        <v>159</v>
+      </c>
+      <c r="ER1" t="s">
+        <v>160</v>
+      </c>
+      <c r="ES1" t="s">
+        <v>161</v>
+      </c>
+      <c r="ET1" t="s">
+        <v>162</v>
+      </c>
+      <c r="EU1" t="s">
+        <v>163</v>
+      </c>
+      <c r="EV1" t="s">
+        <v>164</v>
+      </c>
+      <c r="EW1" t="s">
+        <v>165</v>
+      </c>
+      <c r="EX1" t="s">
+        <v>166</v>
+      </c>
+      <c r="EY1" t="s">
+        <v>167</v>
+      </c>
+      <c r="EZ1" t="s">
+        <v>168</v>
+      </c>
+      <c r="FA1" t="s">
+        <v>169</v>
+      </c>
+      <c r="FB1" t="s">
+        <v>170</v>
+      </c>
+      <c r="FC1" t="s">
+        <v>171</v>
+      </c>
+      <c r="FD1" t="s">
+        <v>172</v>
+      </c>
+      <c r="FE1" t="s">
+        <v>173</v>
+      </c>
+      <c r="FF1" t="s">
+        <v>174</v>
+      </c>
+      <c r="FG1" t="s">
+        <v>175</v>
+      </c>
+      <c r="FH1" t="s">
+        <v>176</v>
+      </c>
+      <c r="FI1" t="s">
+        <v>177</v>
+      </c>
+      <c r="FJ1" t="s">
+        <v>178</v>
+      </c>
+      <c r="FK1" t="s">
+        <v>179</v>
+      </c>
+      <c r="FL1" t="s">
+        <v>180</v>
+      </c>
+      <c r="FM1" t="s">
+        <v>181</v>
+      </c>
+      <c r="FN1" t="s">
+        <v>182</v>
+      </c>
+      <c r="FO1" t="s">
+        <v>183</v>
+      </c>
+      <c r="FP1" t="s">
+        <v>184</v>
+      </c>
+      <c r="FQ1" t="s">
+        <v>185</v>
+      </c>
+      <c r="FR1" t="s">
+        <v>186</v>
+      </c>
+      <c r="FS1" t="s">
+        <v>187</v>
+      </c>
+      <c r="FT1" t="s">
+        <v>188</v>
+      </c>
+      <c r="FU1" t="s">
+        <v>189</v>
+      </c>
+      <c r="FV1" t="s">
+        <v>190</v>
+      </c>
+      <c r="FW1" t="s">
+        <v>191</v>
+      </c>
+      <c r="FX1" t="s">
+        <v>192</v>
+      </c>
+      <c r="FY1" t="s">
+        <v>193</v>
+      </c>
+      <c r="FZ1" t="s">
+        <v>194</v>
+      </c>
+      <c r="GA1" t="s">
+        <v>195</v>
+      </c>
+      <c r="GB1" t="s">
+        <v>196</v>
+      </c>
+      <c r="GC1" t="s">
+        <v>197</v>
+      </c>
+      <c r="GD1" t="s">
+        <v>198</v>
+      </c>
+      <c r="GE1" t="s">
+        <v>199</v>
+      </c>
+      <c r="GF1" t="s">
+        <v>200</v>
+      </c>
+      <c r="GG1" t="s">
+        <v>201</v>
+      </c>
+      <c r="GH1" t="s">
+        <v>202</v>
+      </c>
+      <c r="GI1" t="s">
+        <v>203</v>
+      </c>
+      <c r="GJ1" t="s">
+        <v>204</v>
+      </c>
+      <c r="GK1" t="s">
+        <v>205</v>
+      </c>
+      <c r="GL1" t="s">
+        <v>206</v>
+      </c>
+      <c r="GM1" t="s">
+        <v>207</v>
+      </c>
+      <c r="GN1" t="s">
+        <v>208</v>
+      </c>
+      <c r="GO1" t="s">
+        <v>209</v>
+      </c>
+      <c r="GP1" t="s">
+        <v>210</v>
+      </c>
+      <c r="GQ1" t="s">
+        <v>211</v>
+      </c>
+      <c r="GR1" t="s">
+        <v>212</v>
+      </c>
+      <c r="GS1" t="s">
+        <v>213</v>
+      </c>
+      <c r="GT1" t="s">
+        <v>214</v>
+      </c>
+      <c r="GU1" t="s">
+        <v>215</v>
+      </c>
+      <c r="GV1" t="s">
+        <v>216</v>
+      </c>
+      <c r="GW1" t="s">
+        <v>217</v>
+      </c>
+      <c r="GX1" t="s">
+        <v>218</v>
+      </c>
+      <c r="GY1" t="s">
+        <v>219</v>
+      </c>
+      <c r="GZ1" t="s">
+        <v>220</v>
+      </c>
+      <c r="HA1" t="s">
+        <v>221</v>
+      </c>
+      <c r="HB1" t="s">
+        <v>222</v>
+      </c>
+      <c r="HC1" t="s">
+        <v>223</v>
+      </c>
+      <c r="HD1" t="s">
+        <v>224</v>
+      </c>
+      <c r="HE1" t="s">
+        <v>225</v>
+      </c>
+      <c r="HF1" t="s">
+        <v>226</v>
+      </c>
+      <c r="HG1" t="s">
+        <v>227</v>
+      </c>
+      <c r="HH1" t="s">
+        <v>228</v>
+      </c>
+      <c r="HI1" t="s">
+        <v>229</v>
+      </c>
+      <c r="HJ1" t="s">
+        <v>230</v>
+      </c>
+      <c r="HK1" t="s">
+        <v>231</v>
+      </c>
+      <c r="HL1" t="s">
+        <v>232</v>
+      </c>
+      <c r="HM1" t="s">
+        <v>233</v>
+      </c>
+      <c r="HN1" t="s">
+        <v>234</v>
+      </c>
+      <c r="HO1" t="s">
+        <v>235</v>
+      </c>
+      <c r="HP1" t="s">
+        <v>236</v>
+      </c>
+      <c r="HQ1" t="s">
+        <v>237</v>
+      </c>
+      <c r="HR1" t="s">
+        <v>238</v>
+      </c>
+      <c r="HS1" t="s">
+        <v>239</v>
+      </c>
+      <c r="HT1" t="s">
+        <v>240</v>
+      </c>
+      <c r="HU1" t="s">
+        <v>241</v>
+      </c>
+      <c r="HV1" t="s">
+        <v>242</v>
+      </c>
+      <c r="HW1" t="s">
+        <v>243</v>
+      </c>
+      <c r="HX1" t="s">
+        <v>244</v>
+      </c>
+      <c r="HY1" t="s">
+        <v>245</v>
+      </c>
+      <c r="HZ1" t="s">
+        <v>246</v>
+      </c>
+      <c r="IA1" t="s">
+        <v>247</v>
+      </c>
+      <c r="IB1" t="s">
+        <v>248</v>
+      </c>
+      <c r="IC1" t="s">
+        <v>249</v>
+      </c>
+      <c r="ID1" t="s">
+        <v>250</v>
+      </c>
+      <c r="IE1" t="s">
+        <v>251</v>
+      </c>
+      <c r="IF1" t="s">
+        <v>252</v>
+      </c>
+      <c r="IG1" t="s">
+        <v>253</v>
+      </c>
+      <c r="IH1" t="s">
+        <v>254</v>
+      </c>
+      <c r="II1" t="s">
+        <v>255</v>
+      </c>
+      <c r="IJ1" t="s">
+        <v>256</v>
+      </c>
+      <c r="IK1" t="s">
+        <v>257</v>
+      </c>
+      <c r="IL1" t="s">
+        <v>258</v>
+      </c>
+      <c r="IM1" t="s">
+        <v>259</v>
+      </c>
+      <c r="IN1" t="s">
+        <v>260</v>
+      </c>
+      <c r="IO1" t="s">
+        <v>261</v>
+      </c>
+      <c r="IP1" t="s">
+        <v>262</v>
+      </c>
+      <c r="IQ1" t="s">
+        <v>263</v>
+      </c>
+      <c r="IR1" t="s">
+        <v>264</v>
+      </c>
+      <c r="IS1" t="s">
+        <v>265</v>
+      </c>
+      <c r="IT1" t="s">
+        <v>266</v>
+      </c>
+      <c r="IU1" t="s">
+        <v>267</v>
+      </c>
+      <c r="IV1" t="s">
+        <v>268</v>
+      </c>
+      <c r="IW1" t="s">
+        <v>269</v>
+      </c>
+      <c r="IX1" t="s">
+        <v>270</v>
+      </c>
+      <c r="IY1" t="s">
+        <v>271</v>
+      </c>
+      <c r="IZ1" t="s">
+        <v>272</v>
+      </c>
+      <c r="JA1" t="s">
+        <v>273</v>
+      </c>
+      <c r="JB1" t="s">
+        <v>274</v>
+      </c>
+      <c r="JC1" t="s">
+        <v>275</v>
+      </c>
+      <c r="JD1" t="s">
+        <v>276</v>
+      </c>
+      <c r="JE1" t="s">
+        <v>277</v>
+      </c>
+      <c r="JF1" t="s">
+        <v>278</v>
+      </c>
+      <c r="JG1" t="s">
+        <v>279</v>
+      </c>
+      <c r="JH1" t="s">
+        <v>280</v>
+      </c>
+      <c r="JI1" t="s">
+        <v>281</v>
+      </c>
+      <c r="JJ1" t="s">
+        <v>282</v>
+      </c>
+      <c r="JK1" t="s">
+        <v>283</v>
+      </c>
+      <c r="JL1" t="s">
+        <v>284</v>
+      </c>
+      <c r="JM1" t="s">
+        <v>285</v>
+      </c>
+      <c r="JN1" t="s">
+        <v>286</v>
+      </c>
+      <c r="JO1" t="s">
+        <v>287</v>
+      </c>
+      <c r="JP1" t="s">
+        <v>288</v>
+      </c>
+      <c r="JQ1" t="s">
+        <v>289</v>
+      </c>
+      <c r="JR1" t="s">
+        <v>290</v>
+      </c>
+      <c r="JS1" t="s">
+        <v>291</v>
+      </c>
+      <c r="JT1" t="s">
+        <v>292</v>
+      </c>
+      <c r="JU1" t="s">
+        <v>293</v>
+      </c>
+      <c r="JV1" t="s">
+        <v>294</v>
+      </c>
+      <c r="JW1" t="s">
+        <v>295</v>
+      </c>
+      <c r="JX1" t="s">
+        <v>296</v>
+      </c>
+      <c r="JY1" t="s">
+        <v>297</v>
+      </c>
+      <c r="JZ1" t="s">
+        <v>298</v>
+      </c>
+      <c r="KA1" t="s">
+        <v>299</v>
+      </c>
+      <c r="KB1" t="s">
+        <v>300</v>
+      </c>
+      <c r="KC1" t="s">
+        <v>301</v>
+      </c>
+      <c r="KD1" t="s">
+        <v>302</v>
+      </c>
+      <c r="KE1" t="s">
+        <v>303</v>
+      </c>
+      <c r="KF1" t="s">
+        <v>304</v>
+      </c>
+      <c r="KG1" t="s">
+        <v>305</v>
+      </c>
+      <c r="KH1" t="s">
+        <v>306</v>
+      </c>
+      <c r="KI1" t="s">
+        <v>307</v>
+      </c>
+      <c r="KJ1" t="s">
+        <v>308</v>
+      </c>
+      <c r="KK1" t="s">
+        <v>309</v>
+      </c>
+      <c r="KL1" t="s">
+        <v>310</v>
+      </c>
+      <c r="KM1" t="s">
+        <v>311</v>
+      </c>
+      <c r="KN1" t="s">
+        <v>312</v>
+      </c>
+      <c r="KO1" t="s">
+        <v>313</v>
+      </c>
+      <c r="KP1" t="s">
+        <v>314</v>
+      </c>
+      <c r="KQ1" t="s">
+        <v>315</v>
+      </c>
+      <c r="KR1" t="s">
+        <v>316</v>
+      </c>
+      <c r="KS1" t="s">
+        <v>317</v>
+      </c>
+      <c r="KT1" t="s">
+        <v>318</v>
+      </c>
+      <c r="KU1" t="s">
+        <v>319</v>
+      </c>
+      <c r="KV1" t="s">
+        <v>320</v>
+      </c>
+      <c r="KW1" t="s">
+        <v>321</v>
+      </c>
+      <c r="KX1" t="s">
+        <v>322</v>
+      </c>
+      <c r="KY1" t="s">
+        <v>323</v>
+      </c>
+      <c r="KZ1" t="s">
+        <v>324</v>
+      </c>
+      <c r="LA1" t="s">
+        <v>325</v>
+      </c>
+      <c r="LB1" t="s">
+        <v>326</v>
+      </c>
+      <c r="LC1" t="s">
+        <v>327</v>
+      </c>
+      <c r="LD1" t="s">
+        <v>328</v>
+      </c>
+      <c r="LE1" t="s">
+        <v>329</v>
+      </c>
+      <c r="LF1" t="s">
+        <v>330</v>
+      </c>
+      <c r="LG1" t="s">
+        <v>331</v>
+      </c>
+      <c r="LH1" t="s">
+        <v>332</v>
+      </c>
+      <c r="LI1" t="s">
+        <v>333</v>
+      </c>
+      <c r="LJ1" t="s">
+        <v>334</v>
+      </c>
+      <c r="LK1" t="s">
+        <v>335</v>
+      </c>
+      <c r="LL1" t="s">
+        <v>336</v>
+      </c>
+      <c r="LM1" t="s">
+        <v>337</v>
+      </c>
+      <c r="LN1" t="s">
+        <v>338</v>
+      </c>
+      <c r="LO1" t="s">
+        <v>339</v>
+      </c>
+      <c r="LP1" t="s">
+        <v>340</v>
+      </c>
+      <c r="LQ1" t="s">
+        <v>341</v>
+      </c>
+      <c r="LR1" t="s">
+        <v>342</v>
+      </c>
+      <c r="LS1" t="s">
+        <v>343</v>
+      </c>
+      <c r="LT1" t="s">
+        <v>344</v>
+      </c>
+      <c r="LU1" t="s">
+        <v>345</v>
+      </c>
+      <c r="LV1" t="s">
+        <v>346</v>
+      </c>
+      <c r="LW1" t="s">
+        <v>347</v>
+      </c>
+      <c r="LX1" t="s">
+        <v>348</v>
+      </c>
+      <c r="LY1" t="s">
+        <v>349</v>
+      </c>
+      <c r="LZ1" t="s">
+        <v>350</v>
+      </c>
+      <c r="MA1" t="s">
+        <v>351</v>
+      </c>
+      <c r="MB1" t="s">
+        <v>352</v>
+      </c>
+      <c r="MC1" t="s">
+        <v>353</v>
+      </c>
+      <c r="MD1" t="s">
+        <v>354</v>
+      </c>
+      <c r="ME1" t="s">
+        <v>355</v>
+      </c>
+      <c r="MF1" t="s">
+        <v>356</v>
+      </c>
+      <c r="MG1" t="s">
+        <v>357</v>
+      </c>
+      <c r="MH1" t="s">
+        <v>358</v>
+      </c>
+      <c r="MI1" t="s">
+        <v>359</v>
+      </c>
+      <c r="MJ1" t="s">
+        <v>360</v>
+      </c>
+      <c r="MK1" t="s">
+        <v>361</v>
+      </c>
+      <c r="ML1" t="s">
+        <v>362</v>
+      </c>
+      <c r="MM1" t="s">
+        <v>363</v>
+      </c>
+      <c r="MN1" t="s">
+        <v>364</v>
+      </c>
+      <c r="MO1" t="s">
+        <v>365</v>
+      </c>
+      <c r="MP1" t="s">
+        <v>366</v>
+      </c>
+      <c r="MQ1" t="s">
+        <v>367</v>
+      </c>
+      <c r="MR1" t="s">
+        <v>368</v>
+      </c>
+      <c r="MS1" t="s">
+        <v>369</v>
+      </c>
+      <c r="MT1" t="s">
+        <v>370</v>
+      </c>
+      <c r="MU1" t="s">
+        <v>371</v>
+      </c>
+      <c r="MV1" t="s">
+        <v>372</v>
+      </c>
+      <c r="MW1" t="s">
+        <v>373</v>
+      </c>
+      <c r="MX1" t="s">
+        <v>374</v>
+      </c>
+      <c r="MY1" t="s">
+        <v>375</v>
+      </c>
+      <c r="MZ1" t="s">
+        <v>376</v>
+      </c>
+      <c r="NA1" t="s">
+        <v>377</v>
+      </c>
+      <c r="NB1" t="s">
+        <v>378</v>
+      </c>
+      <c r="NC1" t="s">
+        <v>379</v>
+      </c>
+      <c r="ND1" t="s">
+        <v>380</v>
+      </c>
+      <c r="NE1" t="s">
+        <v>381</v>
+      </c>
+      <c r="NF1" t="s">
+        <v>382</v>
+      </c>
+      <c r="NG1" t="s">
+        <v>383</v>
+      </c>
+      <c r="NH1" t="s">
+        <v>384</v>
+      </c>
+      <c r="NI1" t="s">
+        <v>385</v>
+      </c>
+      <c r="NJ1" t="s">
+        <v>386</v>
+      </c>
+      <c r="NK1" t="s">
+        <v>387</v>
+      </c>
+      <c r="NL1" t="s">
+        <v>388</v>
+      </c>
+      <c r="NM1" t="s">
+        <v>389</v>
+      </c>
+      <c r="NN1" t="s">
+        <v>390</v>
+      </c>
+      <c r="NO1" t="s">
+        <v>391</v>
+      </c>
+      <c r="NP1" t="s">
+        <v>392</v>
+      </c>
+      <c r="NQ1" t="s">
+        <v>393</v>
+      </c>
+      <c r="NR1" t="s">
+        <v>394</v>
+      </c>
+      <c r="NS1" t="s">
+        <v>395</v>
+      </c>
+      <c r="NT1" t="s">
+        <v>396</v>
+      </c>
+      <c r="NU1" t="s">
+        <v>397</v>
+      </c>
+      <c r="NV1" t="s">
+        <v>398</v>
+      </c>
+      <c r="NW1" t="s">
+        <v>399</v>
+      </c>
+      <c r="NX1" t="s">
+        <v>400</v>
+      </c>
+      <c r="NY1" t="s">
+        <v>401</v>
+      </c>
+      <c r="NZ1" t="s">
+        <v>402</v>
+      </c>
+      <c r="OA1" t="s">
+        <v>403</v>
+      </c>
+      <c r="OB1" t="s">
+        <v>404</v>
+      </c>
+      <c r="OC1" t="s">
+        <v>405</v>
+      </c>
+      <c r="OD1" t="s">
+        <v>406</v>
+      </c>
+      <c r="OE1" t="s">
+        <v>407</v>
+      </c>
+      <c r="OF1" t="s">
+        <v>408</v>
+      </c>
+      <c r="OG1" t="s">
+        <v>409</v>
+      </c>
+      <c r="OH1" t="s">
+        <v>410</v>
+      </c>
+      <c r="OI1" t="s">
+        <v>411</v>
+      </c>
+      <c r="OJ1" t="s">
+        <v>412</v>
+      </c>
+      <c r="OK1" t="s">
+        <v>413</v>
+      </c>
+      <c r="OL1" t="s">
+        <v>414</v>
+      </c>
+      <c r="OM1" t="s">
+        <v>415</v>
+      </c>
+      <c r="ON1" t="s">
+        <v>416</v>
+      </c>
+      <c r="OO1" t="s">
+        <v>417</v>
+      </c>
+      <c r="OP1" t="s">
+        <v>418</v>
+      </c>
+      <c r="OQ1" t="s">
+        <v>419</v>
+      </c>
+      <c r="OR1" t="s">
+        <v>420</v>
+      </c>
+      <c r="OS1" t="s">
+        <v>421</v>
+      </c>
+      <c r="OT1" t="s">
+        <v>422</v>
+      </c>
+      <c r="OU1" t="s">
+        <v>423</v>
+      </c>
+      <c r="OV1" t="s">
+        <v>424</v>
+      </c>
+      <c r="OW1" t="s">
+        <v>425</v>
+      </c>
+      <c r="OX1" t="s">
+        <v>426</v>
+      </c>
+      <c r="OY1" t="s">
+        <v>427</v>
+      </c>
+      <c r="OZ1" t="s">
+        <v>428</v>
+      </c>
+      <c r="PA1" t="s">
+        <v>429</v>
+      </c>
+      <c r="PB1" t="s">
+        <v>430</v>
+      </c>
+      <c r="PC1" t="s">
+        <v>431</v>
+      </c>
+      <c r="PD1" t="s">
+        <v>432</v>
+      </c>
+      <c r="PE1" t="s">
+        <v>433</v>
+      </c>
+      <c r="PF1" t="s">
+        <v>434</v>
+      </c>
+      <c r="PG1" t="s">
+        <v>435</v>
+      </c>
+      <c r="PH1" t="s">
+        <v>436</v>
+      </c>
+      <c r="PI1" t="s">
+        <v>437</v>
+      </c>
+      <c r="PJ1" t="s">
+        <v>438</v>
+      </c>
+      <c r="PK1" t="s">
+        <v>439</v>
+      </c>
+      <c r="PL1" t="s">
+        <v>440</v>
+      </c>
+      <c r="PM1" t="s">
+        <v>441</v>
+      </c>
+      <c r="PN1" t="s">
+        <v>442</v>
+      </c>
+      <c r="PO1" t="s">
+        <v>443</v>
+      </c>
+      <c r="PP1" t="s">
+        <v>444</v>
+      </c>
+      <c r="PQ1" t="s">
+        <v>445</v>
+      </c>
+      <c r="PR1" t="s">
+        <v>446</v>
+      </c>
+      <c r="PS1" t="s">
+        <v>447</v>
+      </c>
+      <c r="PT1" t="s">
+        <v>448</v>
+      </c>
+      <c r="PU1" t="s">
+        <v>449</v>
+      </c>
+      <c r="PV1" t="s">
+        <v>450</v>
+      </c>
+      <c r="PW1" t="s">
+        <v>451</v>
+      </c>
+      <c r="PX1" t="s">
+        <v>452</v>
+      </c>
+      <c r="PY1" t="s">
+        <v>453</v>
+      </c>
+      <c r="PZ1" t="s">
+        <v>454</v>
+      </c>
+      <c r="QA1" t="s">
+        <v>455</v>
+      </c>
+      <c r="QB1" t="s">
+        <v>456</v>
+      </c>
+      <c r="QC1" t="s">
+        <v>457</v>
+      </c>
+      <c r="QD1" t="s">
+        <v>458</v>
+      </c>
+      <c r="QE1" t="s">
+        <v>459</v>
+      </c>
+      <c r="QF1" t="s">
+        <v>460</v>
+      </c>
+      <c r="QG1" t="s">
+        <v>461</v>
+      </c>
+      <c r="QH1" t="s">
+        <v>462</v>
+      </c>
+      <c r="QI1" t="s">
+        <v>463</v>
+      </c>
+      <c r="QJ1" t="s">
+        <v>464</v>
+      </c>
+      <c r="QK1" t="s">
+        <v>465</v>
+      </c>
+      <c r="QL1" t="s">
+        <v>466</v>
+      </c>
+      <c r="QM1" t="s">
+        <v>467</v>
+      </c>
+      <c r="QN1" t="s">
+        <v>468</v>
+      </c>
+      <c r="QO1" t="s">
+        <v>469</v>
+      </c>
+      <c r="QP1" t="s">
+        <v>470</v>
+      </c>
+      <c r="QQ1" t="s">
+        <v>471</v>
+      </c>
+      <c r="QR1" t="s">
+        <v>472</v>
+      </c>
+      <c r="QS1" t="s">
+        <v>473</v>
+      </c>
+      <c r="QT1" t="s">
+        <v>474</v>
+      </c>
+      <c r="QU1" t="s">
+        <v>475</v>
+      </c>
+      <c r="QV1" t="s">
+        <v>476</v>
+      </c>
+      <c r="QW1" t="s">
+        <v>477</v>
+      </c>
+      <c r="QX1" t="s">
+        <v>478</v>
+      </c>
+      <c r="QY1" t="s">
+        <v>479</v>
+      </c>
+      <c r="QZ1" t="s">
+        <v>480</v>
+      </c>
+      <c r="RA1" t="s">
+        <v>481</v>
+      </c>
+      <c r="RB1" t="s">
+        <v>482</v>
+      </c>
+      <c r="RC1" t="s">
+        <v>483</v>
+      </c>
+      <c r="RD1" t="s">
+        <v>484</v>
+      </c>
+      <c r="RE1" t="s">
+        <v>485</v>
+      </c>
+      <c r="RF1" t="s">
+        <v>486</v>
+      </c>
+      <c r="RG1" t="s">
+        <v>487</v>
+      </c>
+      <c r="RH1" t="s">
+        <v>488</v>
+      </c>
+      <c r="RI1" t="s">
+        <v>489</v>
+      </c>
+      <c r="RJ1" t="s">
+        <v>490</v>
+      </c>
+      <c r="RK1" t="s">
+        <v>491</v>
+      </c>
+      <c r="RL1" t="s">
+        <v>492</v>
+      </c>
+      <c r="RM1" t="s">
+        <v>493</v>
+      </c>
+      <c r="RN1" t="s">
+        <v>494</v>
+      </c>
+      <c r="RO1" t="s">
+        <v>495</v>
+      </c>
+      <c r="RP1" t="s">
+        <v>496</v>
+      </c>
+      <c r="RQ1" t="s">
+        <v>497</v>
+      </c>
+      <c r="RR1" t="s">
+        <v>498</v>
+      </c>
+      <c r="RS1" t="s">
+        <v>499</v>
+      </c>
+      <c r="RT1" t="s">
+        <v>500</v>
+      </c>
+      <c r="RU1" t="s">
+        <v>501</v>
+      </c>
+      <c r="RV1" t="s">
+        <v>502</v>
+      </c>
+      <c r="RW1" t="s">
+        <v>503</v>
+      </c>
+      <c r="RX1" t="s">
+        <v>504</v>
+      </c>
+      <c r="RY1" t="s">
+        <v>505</v>
+      </c>
+      <c r="RZ1" t="s">
+        <v>506</v>
+      </c>
+      <c r="SA1" t="s">
+        <v>507</v>
+      </c>
+      <c r="SB1" t="s">
+        <v>508</v>
+      </c>
+      <c r="SC1" t="s">
+        <v>509</v>
+      </c>
+      <c r="SD1" t="s">
+        <v>510</v>
+      </c>
+      <c r="SE1" t="s">
+        <v>511</v>
+      </c>
+      <c r="SF1" t="s">
+        <v>512</v>
+      </c>
+      <c r="SG1" t="s">
+        <v>513</v>
+      </c>
+      <c r="SH1" t="s">
+        <v>514</v>
+      </c>
+      <c r="SI1" t="s">
+        <v>515</v>
+      </c>
+      <c r="SJ1" t="s">
+        <v>516</v>
+      </c>
+      <c r="SK1" t="s">
+        <v>517</v>
+      </c>
+      <c r="SL1" t="s">
+        <v>518</v>
+      </c>
+      <c r="SM1" t="s">
+        <v>519</v>
+      </c>
+      <c r="SN1" t="s">
+        <v>520</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/components/tailored-import/back/tests/Common/simple_import.xlsx
+++ b/components/tailored-import/back/tests/Common/simple_import.xlsx
@@ -4,20 +4,21 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27720" windowHeight="14370" activeTab="1"/>
+    <workbookView windowWidth="27720" windowHeight="12690" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Products" sheetId="1" r:id="rId1"/>
     <sheet name="Empty lines and columns" sheetId="2" r:id="rId2"/>
     <sheet name="Empty sheet" sheetId="3" r:id="rId3"/>
     <sheet name="Out of bound value" sheetId="4" r:id="rId4"/>
+    <sheet name="Two lines" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="13">
   <si>
     <t>Sku</t>
   </si>
@@ -62,13 +63,14 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="6">
-    <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="m/d/yyyy;@"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+  <numFmts count="7">
+    <numFmt numFmtId="176" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
+    <numFmt numFmtId="177" formatCode="m/d/yyyy;@"/>
+    <numFmt numFmtId="178" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="179" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="180" formatCode="mmm\-yy"/>
+    <numFmt numFmtId="181" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="182" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -79,11 +81,49 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -111,22 +151,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -134,90 +174,52 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -232,6 +234,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -244,19 +264,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -268,19 +378,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -292,127 +408,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -423,80 +425,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -519,7 +447,81 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -528,148 +530,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -677,19 +679,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1014,7 +1016,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="F3" sqref="A1:F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="14.25" outlineLevelRow="5" outlineLevelCol="5"/>
@@ -1119,7 +1121,7 @@
   <sheetPr/>
   <dimension ref="B2:G7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
@@ -1337,4 +1339,84 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="3" outlineLevelCol="5"/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="1">
+        <v>12</v>
+      </c>
+      <c r="D2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E2" s="2">
+        <v>44642</v>
+      </c>
+      <c r="F2">
+        <f>C2*1.2</f>
+        <v>14.4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="1">
+        <v>13.87</v>
+      </c>
+      <c r="D3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E3" s="2">
+        <v>44704</v>
+      </c>
+    </row>
+    <row r="4" spans="3:5">
+      <c r="C4" s="1"/>
+      <c r="D4"/>
+      <c r="E4" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/components/tailored-import/back/tests/Common/simple_import.xlsx
+++ b/components/tailored-import/back/tests/Common/simple_import.xlsx
@@ -12,7 +12,7 @@
     <sheet name="Empty sheet" sheetId="3" r:id="rId3"/>
     <sheet name="Out of bound value" sheetId="4" r:id="rId4"/>
     <sheet name="Empty header" sheetId="5" r:id="rId5"/>
-    <sheet name="Sheet1" sheetId="8" r:id="rId6"/>
+    <sheet name="Two lines" sheetId="8" r:id="rId6"/>
     <sheet name="Trailing empty header" sheetId="6" r:id="rId7"/>
     <sheet name="More than 500 cols" sheetId="7" r:id="rId8"/>
   </sheets>
@@ -2967,7 +2967,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="O17" sqref="O17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="14.25" outlineLevelRow="5" outlineLevelCol="5"/>
